--- a/biology/Neurosciences/Neurotoxicité/Neurotoxicité.xlsx
+++ b/biology/Neurosciences/Neurotoxicité/Neurotoxicité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Neurotoxicit%C3%A9</t>
+          <t>Neurotoxicité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La neurotoxicité est le caractère toxique d'un poison (ou substance neurotoxique) sur le système nerveux. Il peut s'agir d'éléments chimiques comme les métaux lourds, de composés chimiques ou de substances biologiques comme les neurotoxines.
 Une substance neurotoxique agit habituellement en perturbant ou en paralysant l'influx nerveux, en agissant notamment sur les émetteurs ou les récepteurs synaptiques. Le résultat est, en quelques minutes, voire en quelques secondes, des troubles de la vue et des autres sens, une perte du contrôle moteur (paralysie générale), éventuellement suivie d'une paralysie des muscles de la respiration, conduisant à la mort. Le cœur, lui, n'est pas sujet à une paralysie en cas de neurotoxicité étant donné sa capacité à se contracter spontanément en absence d'innervation. Cependant, l'absence de régulation du rythme cardiaque par le système nerveux autonome peut entraîner une bradycardie ou une tachycardie. Certaines molécules n'agissent que sur les animaux à sang chauds, d'autres sur les animaux à sang froid, d'autres dans les deux cas.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Neurotoxicit%C3%A9</t>
+          <t>Neurotoxicité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Sources, voies et types d'exposition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Homme ou l'animal y sont exposés à travers l'air, l'eau, les sols. Les neurotoxines parviennent au cerveau ou au système nerveux après avoir été inhalés, ingérés et/ou en passant directement à travers la peau pour certains. Le fœtus et l'embryon y sont généralement beaucoup plus sensibles.
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Neurotoxicit%C3%A9</t>
+          <t>Neurotoxicité</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Plantes neurotoxiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines plantes sont neurotoxiques, telles l'hysope.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Neurotoxicit%C3%A9</t>
+          <t>Neurotoxicité</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Psychotropes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains psychotropes sont neurotoxiques. C'est notamment le cas de la cocaïne, de l'alcool, de la MDMA et de l'amphétamine.
 L'alcool est un des psychotropes les plus neurotoxiques que l'on connaisse, provoquant à terme la mort cellulaire des neurones.
